--- a/Input/Adamjee_Mednet/benefits.xlsx
+++ b/Input/Adamjee_Mednet/benefits.xlsx
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-01</t>
@@ -341,6 +341,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">20% up to a max of AED 50 - </t>
     </r>
@@ -349,6 +350,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama Nil co-pay/Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 10% co-pay/Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 20% co-pay</t>
     </r>
@@ -397,7 +399,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,16 +426,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,7 +483,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,18 +493,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -535,7 +515,7 @@
   <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK2" activeCellId="0" sqref="BK2"/>
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -891,13 +871,13 @@
       <c r="BH2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BI2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="BJ2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -905,12 +885,12 @@
       <c r="BH3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BK3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH4" s="8" t="s">
+      <c r="BH4" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -925,7 +905,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH7" s="8" t="s">
+      <c r="BH7" s="3" t="s">
         <v>102</v>
       </c>
     </row>
